--- a/medicine/Mort/Dégradations_de_cimetières_par_Israël_et_nécro-violences_contre_les_Palestiniens/Dégradations_de_cimetières_par_Israël_et_nécro-violences_contre_les_Palestiniens.xlsx
+++ b/medicine/Mort/Dégradations_de_cimetières_par_Israël_et_nécro-violences_contre_les_Palestiniens/Dégradations_de_cimetières_par_Israël_et_nécro-violences_contre_les_Palestiniens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9gradations_de_cimeti%C3%A8res_par_Isra%C3%ABl_et_n%C3%A9cro-violences_contre_les_Palestiniens</t>
+          <t>Dégradations_de_cimetières_par_Israël_et_nécro-violences_contre_les_Palestiniens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forces israéliennes ont endommagé ou détruit au moins seize cimetières dans la bande de Gaza durant la guerre de 2023 entre Israël et le Hamas dans divers endroits de Gaza en Palestine[1], comme l'ont établi les preuves recueillies par CNN, le New York Times et Euro-Mediterranean Human Rights Monitor.
-Selon Israël, leurs intentions étaient dans un premier temps, de rechercher les corps d'otages israéliens dans certains endroits après avoir reçu des renseignements à cet effet. Par ailleurs les Forces de défense israéliennes (FDI) déclarent que le creusement du cimetière de Beit Hanoun près de Khan Younès est dû à la découverte de ce qu'elles prétendent être un centre de commandement du Hamas dans un tunnel, qui, selon Tsahal, sans fournir de preuves, se trouvait directement sous le cimetière[2]. CNN n'a pas été en mesure de vérifier l'emplacement du tunnel sous le cimetière, et a cherché mais n'a pas trouvé d'entrée de tunnel sur le terrain du cimetière[2].
-De manière plus générale, des rapports font état de diverses formes de nécro-violence à l'encontre des Palestiniens (contre les cadavres) dans le cadre de l'occupation de la Cisjordanie et de la bande de Gaza. Outre la profanation ou la destruction de cimetières, les techniques employées comprennent la rétention des corps palestiniens, empêchant ainsi les familles de faire le deuil de leurs proches, et les « cimetières de numéros » où les tombes ne sont marquées que par des numéros et non par des noms, déshumanisant ainsi les morts[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forces israéliennes ont endommagé ou détruit au moins seize cimetières dans la bande de Gaza durant la guerre de 2023 entre Israël et le Hamas dans divers endroits de Gaza en Palestine, comme l'ont établi les preuves recueillies par CNN, le New York Times et Euro-Mediterranean Human Rights Monitor.
+Selon Israël, leurs intentions étaient dans un premier temps, de rechercher les corps d'otages israéliens dans certains endroits après avoir reçu des renseignements à cet effet. Par ailleurs les Forces de défense israéliennes (FDI) déclarent que le creusement du cimetière de Beit Hanoun près de Khan Younès est dû à la découverte de ce qu'elles prétendent être un centre de commandement du Hamas dans un tunnel, qui, selon Tsahal, sans fournir de preuves, se trouvait directement sous le cimetière. CNN n'a pas été en mesure de vérifier l'emplacement du tunnel sous le cimetière, et a cherché mais n'a pas trouvé d'entrée de tunnel sur le terrain du cimetière.
+De manière plus générale, des rapports font état de diverses formes de nécro-violence à l'encontre des Palestiniens (contre les cadavres) dans le cadre de l'occupation de la Cisjordanie et de la bande de Gaza. Outre la profanation ou la destruction de cimetières, les techniques employées comprennent la rétention des corps palestiniens, empêchant ainsi les familles de faire le deuil de leurs proches, et les « cimetières de numéros » où les tombes ne sont marquées que par des numéros et non par des noms, déshumanisant ainsi les morts,.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9gradations_de_cimeti%C3%A8res_par_Isra%C3%ABl_et_n%C3%A9cro-violences_contre_les_Palestiniens</t>
+          <t>Dégradations_de_cimetières_par_Israël_et_nécro-violences_contre_les_Palestiniens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Destructions de cimetières dans la bande de Gaza</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Israël a mené un certain nombre d'activités dans les cimetières de Gaza, y compris l'établissement de bases militaires et, selon les FDI, l'exhumation de corps pour tenter de localiser les corps des otages ; ils mènent des « opérations précises de sauvetage d'otages dans les endroits spécifiques où les informations indiquent que les corps des otages peuvent être localisés »[5],[6].
-La destruction intentionnelle de sites religieux peut constituer un crime de guerre si elle est effectuée sans nécessité militaire[7],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Israël a mené un certain nombre d'activités dans les cimetières de Gaza, y compris l'établissement de bases militaires et, selon les FDI, l'exhumation de corps pour tenter de localiser les corps des otages ; ils mènent des « opérations précises de sauvetage d'otages dans les endroits spécifiques où les informations indiquent que les corps des otages peuvent être localisés »,.
+La destruction intentionnelle de sites religieux peut constituer un crime de guerre si elle est effectuée sans nécessité militaire,.
 *ou Al-Faluja, Al-Fallujah, etc.
 </t>
         </is>
